--- a/Sorts_test.xlsx
+++ b/Sorts_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>QuickSort:</t>
   </si>
@@ -23,33 +23,6 @@
   </si>
   <si>
     <t>Time 1 (ms)</t>
-  </si>
-  <si>
-    <t>10^3</t>
-  </si>
-  <si>
-    <t>5*10^3</t>
-  </si>
-  <si>
-    <t>10^4</t>
-  </si>
-  <si>
-    <t>2*10^4</t>
-  </si>
-  <si>
-    <t>5*10^4</t>
-  </si>
-  <si>
-    <t>10^5</t>
-  </si>
-  <si>
-    <t>2*10^5</t>
-  </si>
-  <si>
-    <t>5*10^5</t>
-  </si>
-  <si>
-    <t>10^6</t>
   </si>
   <si>
     <t>Count Sort (max = 9):</t>
@@ -88,16 +61,10 @@
     <t>Count Sort (max = 49):</t>
   </si>
   <si>
-    <t>Сумма</t>
+    <t>O(n log n) proof</t>
   </si>
   <si>
-    <t>Среднее</t>
-  </si>
-  <si>
-    <t>С нарастающим итогом</t>
-  </si>
-  <si>
-    <t>Количество</t>
+    <t>O(n) proof</t>
   </si>
 </sst>
 </file>
@@ -121,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -156,17 +123,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -244,11 +200,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -268,16 +254,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -286,13 +272,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -386,8 +375,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -404,101 +393,43 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
+          <c:xVal>
+            <c:numRef>
               <c:f>Лист1!$D$5:$D$13</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10^3</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5*10^3</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10^4</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2*10^4</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5*10^4</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10^5</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2*10^5</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5*10^5</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10^6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Лист1!$E$5:$E$13</c:f>
               <c:numCache>
@@ -533,26 +464,26 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="553243464"/>
-        <c:axId val="553252872"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="553243464"/>
+        <c:axId val="460275552"/>
+        <c:axId val="453426552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="460275552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -571,21 +502,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="51000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -607,7 +523,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600"/>
-                  <a:t>Number of Elements</a:t>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t> of Elements</a:t>
                 </a:r>
                 <a:endParaRPr lang="ru-RU" sz="1600"/>
               </a:p>
@@ -643,7 +563,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -680,15 +600,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553252872"/>
+        <c:crossAx val="453426552"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="553252872"/>
+        <c:axId val="453426552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -797,9 +714,9 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553243464"/>
+        <c:crossAx val="460275552"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:pattFill prst="ltDnDiag">
@@ -938,8 +855,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -956,101 +873,43 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
+          <c:xVal>
+            <c:numRef>
               <c:f>Лист1!$S$5:$S$13</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10^3</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5*10^3</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10^4</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2*10^4</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5*10^4</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10^5</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2*10^5</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5*10^5</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10^6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Лист1!$T$5:$T$13</c:f>
               <c:numCache>
@@ -1085,25 +944,25 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="573625872"/>
-        <c:axId val="573629008"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="573625872"/>
+        <c:axId val="460287312"/>
+        <c:axId val="453430080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="460287312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1122,21 +981,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="51000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1158,12 +1002,9 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600"/>
-                  <a:t>Number</a:t>
+                  <a:t>Number of Elements</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
-                  <a:t> of Elements</a:t>
-                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1600"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1197,7 +1038,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1234,15 +1075,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573629008"/>
+        <c:crossAx val="453430080"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="573629008"/>
+        <c:axId val="453430080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1351,9 +1189,9 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573625872"/>
+        <c:crossAx val="460287312"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:pattFill prst="ltDnDiag">
@@ -1488,8 +1326,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1506,101 +1344,43 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
+          <c:xVal>
+            <c:numRef>
               <c:f>Лист1!$AD$5:$AD$13</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10^3</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5*10^3</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10^4</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2*10^4</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5*10^4</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10^5</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2*10^5</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5*10^5</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10^6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Лист1!$AE$5:$AE$13</c:f>
               <c:numCache>
@@ -1635,26 +1415,26 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="579485400"/>
-        <c:axId val="579483048"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="579485400"/>
+        <c:axId val="457933704"/>
+        <c:axId val="455145392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="457933704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1673,21 +1453,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="51000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1745,7 +1510,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1782,15 +1547,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="579483048"/>
+        <c:crossAx val="455145392"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="579483048"/>
+        <c:axId val="455145392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1832,11 +1594,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600"/>
-                  <a:t>TIME</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
-                  <a:t> (MS)</a:t>
+                  <a:t>TIME (MS)</a:t>
                 </a:r>
                 <a:endParaRPr lang="ru-RU" sz="1600"/>
               </a:p>
@@ -1903,9 +1661,9 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="579485400"/>
+        <c:crossAx val="457933704"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:pattFill prst="ltDnDiag">
@@ -2047,8 +1805,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2074,42 +1832,43 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
+          <c:xVal>
+            <c:numRef>
               <c:f>Лист1!$D$5:$D$13</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10^3</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5*10^3</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10^4</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2*10^4</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5*10^4</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10^5</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2*10^5</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5*10^5</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10^6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Лист1!$E$5:$E$13</c:f>
               <c:numCache>
@@ -2144,8 +1903,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2171,42 +1930,43 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
+          <c:xVal>
+            <c:numRef>
               <c:f>Лист1!$D$5:$D$13</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10^3</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5*10^3</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10^4</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2*10^4</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5*10^4</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10^5</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2*10^5</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5*10^5</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10^6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Лист1!$T$5:$T$13</c:f>
               <c:numCache>
@@ -2241,8 +2001,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2268,42 +2028,43 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
+          <c:xVal>
+            <c:numRef>
               <c:f>Лист1!$D$5:$D$13</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10^3</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5*10^3</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10^4</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2*10^4</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5*10^4</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10^5</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2*10^5</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5*10^5</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10^6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Лист1!$AE$5:$AE$13</c:f>
               <c:numCache>
@@ -2338,8 +2099,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2349,12 +2110,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="573156136"/>
-        <c:axId val="573148296"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="573156136"/>
+        <c:axId val="457936840"/>
+        <c:axId val="455147352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="457936840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2419,7 +2179,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2455,15 +2215,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573148296"/>
+        <c:crossAx val="455147352"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="573148296"/>
+        <c:axId val="455147352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2568,9 +2325,9 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573156136"/>
+        <c:crossAx val="457936840"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2638,6 +2395,1425 @@
     </a:gradFill>
     <a:ln>
       <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1"/>
+              <a:t>Proof</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
+              <a:t> that QSort is O(n log n) but it's actually O(n)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="2400" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22102189449182597"/>
+          <c:y val="1.9900497512437811E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$5:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$5:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7399999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7300000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7250000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7560000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7580000000000004E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="457935664"/>
+        <c:axId val="457935272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="457935664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+                  <a:t> of Elements</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1600" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457935272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="457935272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>TIME/NUM</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+                  <a:t> (MS)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1600" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457935664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1"/>
+              <a:t>Proof tha</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
+              <a:t>t Count Sort with max = 9 is O(n)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="2400" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10576219185135918"/>
+          <c:y val="0.12047846796928162"/>
+          <c:w val="0.85001437490613396"/>
+          <c:h val="0.76286303101001252"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$S$5:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$R$5:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0000000000000007E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3600000000000004E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3000000000000003E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="402393576"/>
+        <c:axId val="460275944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="402393576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>Number of Elements</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460275944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="460275944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>TIME/NUM (MS)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1600" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402393576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1"/>
+              <a:t>Proof that Count Sort with max = 49 is O(n)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="2400" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$AD$5:$AD$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$AC$5:$AC$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0000000000000007E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9999999999999994E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5999999999999991E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5999999999999991E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8400000000000008E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="552497944"/>
+        <c:axId val="552496768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="552497944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>Number of Elements</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1600" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552496768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="552496768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>TIME/NUM</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+                  <a:t> (MS)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1600" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552497944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2819,6 +3995,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
   <cs:axisTitle>
@@ -4964,6 +6260,1554 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5002,14 +7846,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>751113</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>97972</xdr:rowOff>
     </xdr:to>
@@ -5032,14 +7876,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>21771</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>21772</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>165101</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
@@ -5062,16 +7906,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>547914</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>3626</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5085,6 +7929,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Диаграмма 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5382,14 +8316,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AJ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG61" sqref="AG61"/>
+    <sheetView tabSelected="1" topLeftCell="I22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AB42" sqref="AB42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="8.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" style="1" customWidth="1"/>
     <col min="5" max="6" width="11.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.109375" style="1" customWidth="1"/>
@@ -5425,7 +8360,7 @@
   <sheetData>
     <row r="2" spans="3:36" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3"/>
@@ -5440,8 +8375,8 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="4"/>
-      <c r="R3" s="9" t="s">
-        <v>12</v>
+      <c r="R3" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -5450,8 +8385,8 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="4"/>
-      <c r="AC3" s="9" t="s">
-        <v>23</v>
+      <c r="AC3" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
@@ -5462,904 +8397,1018 @@
       <c r="AJ3" s="4"/>
     </row>
     <row r="4" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C4" s="5"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="R4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="V4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="7" t="s">
+      <c r="AD4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="U4" s="7" t="s">
+      <c r="AE4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="V4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ4" s="10" t="s">
-        <v>17</v>
+      <c r="AG4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C5" s="5"/>
-      <c r="D5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="C5" s="16">
+        <f>E5/(D5)</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D5" s="7">
+        <f>10^3</f>
+        <v>1000</v>
+      </c>
+      <c r="E5" s="7">
         <f>AVERAGE(F5,G5,H5,I5,J5,K5,L5,M5,N5,O5)</f>
         <v>0.2</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>1</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>0</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>0</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>0</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <v>0</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="10">
         <v>0</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="T5" s="8">
+      <c r="R5" s="14">
+        <f>T5/(S5)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <f>10^3</f>
+        <v>1000</v>
+      </c>
+      <c r="T5" s="7">
         <f>AVERAGE(U5,V5,W5,X5,Y5)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="7">
         <v>0</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="7">
         <v>0</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="7">
         <v>0</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="7">
         <v>0</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="10">
         <v>0</v>
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE5" s="8">
+      <c r="AC5" s="14">
+        <f>AE5/AD5</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="7">
+        <f>10^3</f>
+        <v>1000</v>
+      </c>
+      <c r="AE5" s="7">
         <f>AVERAGE(AF5,AG5,AH5,AI5,AJ5)</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="8">
+      <c r="AF5" s="7">
         <v>0</v>
       </c>
-      <c r="AG5" s="8">
+      <c r="AG5" s="7">
         <v>0</v>
       </c>
-      <c r="AH5" s="8">
+      <c r="AH5" s="7">
         <v>0</v>
       </c>
-      <c r="AI5" s="8">
+      <c r="AI5" s="7">
         <v>0</v>
       </c>
-      <c r="AJ5" s="11">
+      <c r="AJ5" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C6" s="5"/>
-      <c r="D6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="8">
-        <f t="shared" ref="E6:E13" si="0">AVERAGE(F6,G6,H6,I6,J6,K6,L6,M6,N6,O6)</f>
+      <c r="C6" s="16">
+        <f t="shared" ref="C6:C13" si="0">E6/(D6)</f>
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="D6" s="7">
+        <f>5*10^3</f>
+        <v>5000</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" ref="E6:E13" si="1">AVERAGE(F6,G6,H6,I6,J6,K6,L6,M6,N6,O6)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>1</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>1</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>1</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>2</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <v>1</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <v>1</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="10">
         <v>1</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="T6" s="8">
-        <f t="shared" ref="T6:T13" si="1">AVERAGE(U6,V6,W6,X6,Y6)</f>
+      <c r="R6" s="14">
+        <f t="shared" ref="R6:R13" si="2">T6/(S6)</f>
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="S6" s="7">
+        <f>5*10^3</f>
+        <v>5000</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" ref="T6:T13" si="3">AVERAGE(U6,V6,W6,X6,Y6)</f>
         <v>0.4</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="7">
         <v>1</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="7">
         <v>1</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="7">
         <v>0</v>
       </c>
-      <c r="X6" s="8">
+      <c r="X6" s="7">
         <v>0</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Y6" s="10">
         <v>0</v>
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE6" s="8">
-        <f t="shared" ref="AE6:AE13" si="2">AVERAGE(AF6,AG6,AH6,AI6,AJ6)</f>
+      <c r="AC6" s="14">
+        <f t="shared" ref="AC6:AC13" si="4">AE6/AD6</f>
+        <v>1.1999999999999999E-4</v>
+      </c>
+      <c r="AD6" s="7">
+        <f>5*10^3</f>
+        <v>5000</v>
+      </c>
+      <c r="AE6" s="7">
+        <f t="shared" ref="AE6:AE13" si="5">AVERAGE(AF6,AG6,AH6,AI6,AJ6)</f>
         <v>0.6</v>
       </c>
-      <c r="AF6" s="8">
+      <c r="AF6" s="7">
         <v>0</v>
       </c>
-      <c r="AG6" s="8">
+      <c r="AG6" s="7">
         <v>1</v>
       </c>
-      <c r="AH6" s="8">
+      <c r="AH6" s="7">
         <v>1</v>
       </c>
-      <c r="AI6" s="8">
+      <c r="AI6" s="7">
         <v>0</v>
       </c>
-      <c r="AJ6" s="11">
+      <c r="AJ6" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C7" s="5"/>
-      <c r="D7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="C7" s="16">
         <f t="shared" si="0"/>
+        <v>2.9E-4</v>
+      </c>
+      <c r="D7" s="7">
+        <f>10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="1"/>
         <v>2.9</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>3</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>3</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>3</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>3</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>3</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>3</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>3</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>3</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="10">
         <v>2</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="T7" s="8">
-        <f t="shared" si="1"/>
+      <c r="R7" s="14">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="S7" s="7">
+        <f>10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="T7" s="7">
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="7">
         <v>0</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="7">
         <v>1</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7" s="7">
         <v>0</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X7" s="7">
         <v>0</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="10">
         <v>1</v>
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE7" s="8">
-        <f t="shared" si="2"/>
+      <c r="AC7" s="14">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="AD7" s="7">
+        <f>10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="AE7" s="7">
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="AF7" s="8">
+      <c r="AF7" s="7">
         <v>1</v>
       </c>
-      <c r="AG7" s="8">
+      <c r="AG7" s="7">
         <v>0</v>
       </c>
-      <c r="AH7" s="8">
+      <c r="AH7" s="7">
         <v>1</v>
       </c>
-      <c r="AI7" s="8">
+      <c r="AI7" s="7">
         <v>1</v>
       </c>
-      <c r="AJ7" s="11">
+      <c r="AJ7" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C8" s="5"/>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="16">
+        <f t="shared" si="0"/>
+        <v>2.7E-4</v>
+      </c>
+      <c r="D8" s="7">
+        <f>2*10^4</f>
+        <v>20000</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="1"/>
+        <v>5.4</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="7">
+        <v>5</v>
+      </c>
+      <c r="H8" s="7">
         <v>6</v>
       </c>
-      <c r="E8" s="8">
-        <f t="shared" si="0"/>
-        <v>5.4</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="I8" s="7">
         <v>5</v>
       </c>
-      <c r="G8" s="8">
+      <c r="J8" s="7">
         <v>5</v>
       </c>
-      <c r="H8" s="8">
+      <c r="K8" s="7">
         <v>6</v>
       </c>
-      <c r="I8" s="8">
+      <c r="L8" s="7">
+        <v>6</v>
+      </c>
+      <c r="M8" s="7">
         <v>5</v>
       </c>
-      <c r="J8" s="8">
+      <c r="N8" s="7">
         <v>5</v>
       </c>
-      <c r="K8" s="8">
-        <v>6</v>
-      </c>
-      <c r="L8" s="8">
-        <v>6</v>
-      </c>
-      <c r="M8" s="8">
-        <v>5</v>
-      </c>
-      <c r="N8" s="8">
-        <v>5</v>
-      </c>
-      <c r="O8" s="11">
+      <c r="O8" s="10">
         <v>6</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="T8" s="8">
-        <f t="shared" si="1"/>
+      <c r="R8" s="14">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="S8" s="7">
+        <f>2*10^4</f>
+        <v>20000</v>
+      </c>
+      <c r="T8" s="7">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="7">
         <v>1</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="7">
         <v>1</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8" s="7">
         <v>1</v>
       </c>
-      <c r="X8" s="8">
+      <c r="X8" s="7">
         <v>1</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="Y8" s="10">
         <v>1</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE8" s="8">
-        <f t="shared" si="2"/>
+      <c r="AC8" s="14">
+        <f t="shared" si="4"/>
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="AD8" s="7">
+        <f>2*10^4</f>
+        <v>20000</v>
+      </c>
+      <c r="AE8" s="7">
+        <f t="shared" si="5"/>
         <v>1.4</v>
       </c>
-      <c r="AF8" s="8">
+      <c r="AF8" s="7">
         <v>1</v>
       </c>
-      <c r="AG8" s="8">
+      <c r="AG8" s="7">
         <v>2</v>
       </c>
-      <c r="AH8" s="8">
+      <c r="AH8" s="7">
         <v>1</v>
       </c>
-      <c r="AI8" s="8">
+      <c r="AI8" s="7">
         <v>2</v>
       </c>
-      <c r="AJ8" s="11">
+      <c r="AJ8" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C9" s="5"/>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="C9" s="16">
         <f t="shared" si="0"/>
+        <v>2.7399999999999999E-4</v>
+      </c>
+      <c r="D9" s="7">
+        <f>5*10^4</f>
+        <v>50000</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="1"/>
         <v>13.7</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>14</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>16</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>13</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>13</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>13</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>13</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>14</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>14</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <v>14</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="10">
         <v>13</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="T9" s="8">
-        <f t="shared" si="1"/>
+      <c r="R9" s="14">
+        <f t="shared" si="2"/>
+        <v>3.6000000000000001E-5</v>
+      </c>
+      <c r="S9" s="7">
+        <f>5*10^4</f>
+        <v>50000</v>
+      </c>
+      <c r="T9" s="7">
+        <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="7">
         <v>1</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V9" s="7">
         <v>2</v>
       </c>
-      <c r="W9" s="8">
+      <c r="W9" s="7">
         <v>2</v>
       </c>
-      <c r="X9" s="8">
+      <c r="X9" s="7">
         <v>2</v>
       </c>
-      <c r="Y9" s="11">
+      <c r="Y9" s="10">
         <v>2</v>
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE9" s="8">
-        <f t="shared" si="2"/>
+      <c r="AC9" s="14">
+        <f t="shared" si="4"/>
+        <v>7.5999999999999991E-5</v>
+      </c>
+      <c r="AD9" s="7">
+        <f>5*10^4</f>
+        <v>50000</v>
+      </c>
+      <c r="AE9" s="7">
+        <f t="shared" si="5"/>
         <v>3.8</v>
       </c>
-      <c r="AF9" s="8">
+      <c r="AF9" s="7">
         <v>3</v>
       </c>
-      <c r="AG9" s="8">
+      <c r="AG9" s="7">
         <v>4</v>
       </c>
-      <c r="AH9" s="8">
+      <c r="AH9" s="7">
         <v>4</v>
       </c>
-      <c r="AI9" s="8">
+      <c r="AI9" s="7">
         <v>4</v>
       </c>
-      <c r="AJ9" s="11">
+      <c r="AJ9" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C10" s="5"/>
-      <c r="D10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="C10" s="16">
         <f t="shared" si="0"/>
+        <v>2.7300000000000002E-4</v>
+      </c>
+      <c r="D10" s="7">
+        <f>10^5</f>
+        <v>100000</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="1"/>
         <v>27.3</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>26</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>28</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>28</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>27</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>28</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>28</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>27</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <v>27</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <v>27</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="10">
         <v>27</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="T10" s="8">
-        <f t="shared" si="1"/>
+      <c r="R10" s="14">
+        <f t="shared" si="2"/>
+        <v>3.6000000000000001E-5</v>
+      </c>
+      <c r="S10" s="7">
+        <f>10^5</f>
+        <v>100000</v>
+      </c>
+      <c r="T10" s="7">
+        <f t="shared" si="3"/>
         <v>3.6</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="7">
         <v>4</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V10" s="7">
         <v>4</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W10" s="7">
         <v>3</v>
       </c>
-      <c r="X10" s="8">
+      <c r="X10" s="7">
         <v>3</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Y10" s="10">
         <v>4</v>
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="8" t="s">
+      <c r="AC10" s="14">
+        <f t="shared" si="4"/>
+        <v>7.5999999999999991E-5</v>
+      </c>
+      <c r="AD10" s="7">
+        <f>10^5</f>
+        <v>100000</v>
+      </c>
+      <c r="AE10" s="7">
+        <f t="shared" si="5"/>
+        <v>7.6</v>
+      </c>
+      <c r="AF10" s="7">
         <v>8</v>
       </c>
-      <c r="AE10" s="8">
-        <f t="shared" si="2"/>
-        <v>7.6</v>
-      </c>
-      <c r="AF10" s="8">
+      <c r="AG10" s="7">
+        <v>7</v>
+      </c>
+      <c r="AH10" s="7">
         <v>8</v>
       </c>
-      <c r="AG10" s="8">
+      <c r="AI10" s="7">
         <v>7</v>
       </c>
-      <c r="AH10" s="8">
-        <v>8</v>
-      </c>
-      <c r="AI10" s="8">
-        <v>7</v>
-      </c>
-      <c r="AJ10" s="11">
+      <c r="AJ10" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C11" s="5"/>
-      <c r="D11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="C11" s="16">
         <f t="shared" si="0"/>
+        <v>2.7250000000000001E-4</v>
+      </c>
+      <c r="D11" s="7">
+        <f>2*10^5</f>
+        <v>200000</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="1"/>
         <v>54.5</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>52</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>57</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>55</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>54</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>60</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>57</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>52</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <v>54</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <v>51</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="10">
         <v>53</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="T11" s="8">
-        <f t="shared" si="1"/>
+      <c r="R11" s="14">
+        <f t="shared" si="2"/>
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="S11" s="7">
+        <f>2*10^5</f>
+        <v>200000</v>
+      </c>
+      <c r="T11" s="7">
+        <f t="shared" si="3"/>
         <v>6.4</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11" s="7">
         <v>7</v>
       </c>
-      <c r="V11" s="8">
+      <c r="V11" s="7">
         <v>6</v>
       </c>
-      <c r="W11" s="8">
+      <c r="W11" s="7">
         <v>6</v>
       </c>
-      <c r="X11" s="8">
+      <c r="X11" s="7">
         <v>6</v>
       </c>
-      <c r="Y11" s="11">
+      <c r="Y11" s="10">
         <v>7</v>
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE11" s="8">
-        <f t="shared" si="2"/>
+      <c r="AC11" s="14">
+        <f t="shared" si="4"/>
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="AD11" s="7">
+        <f>2*10^5</f>
+        <v>200000</v>
+      </c>
+      <c r="AE11" s="7">
+        <f t="shared" si="5"/>
         <v>15.4</v>
       </c>
-      <c r="AF11" s="8">
+      <c r="AF11" s="7">
         <v>16</v>
       </c>
-      <c r="AG11" s="8">
+      <c r="AG11" s="7">
         <v>15</v>
       </c>
-      <c r="AH11" s="8">
+      <c r="AH11" s="7">
         <v>15</v>
       </c>
-      <c r="AI11" s="8">
+      <c r="AI11" s="7">
         <v>15</v>
       </c>
-      <c r="AJ11" s="11">
+      <c r="AJ11" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C12" s="5"/>
-      <c r="D12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="C12" s="16">
         <f t="shared" si="0"/>
+        <v>2.7560000000000003E-4</v>
+      </c>
+      <c r="D12" s="7">
+        <f>5*10^5</f>
+        <v>500000</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="1"/>
         <v>137.80000000000001</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>140</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>138</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>136</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>138</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>145</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>139</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>135</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <v>135</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <v>137</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="10">
         <v>135</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="T12" s="8">
-        <f t="shared" si="1"/>
+      <c r="R12" s="14">
+        <f t="shared" si="2"/>
+        <v>3.3600000000000004E-5</v>
+      </c>
+      <c r="S12" s="7">
+        <f>5*10^5</f>
+        <v>500000</v>
+      </c>
+      <c r="T12" s="7">
+        <f t="shared" si="3"/>
         <v>16.8</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U12" s="7">
         <v>17</v>
       </c>
-      <c r="V12" s="8">
+      <c r="V12" s="7">
         <v>17</v>
       </c>
-      <c r="W12" s="8">
+      <c r="W12" s="7">
         <v>17</v>
       </c>
-      <c r="X12" s="8">
+      <c r="X12" s="7">
         <v>16</v>
       </c>
-      <c r="Y12" s="11">
+      <c r="Y12" s="10">
         <v>17</v>
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE12" s="8">
-        <f t="shared" si="2"/>
+      <c r="AC12" s="14">
+        <f t="shared" si="4"/>
+        <v>7.7999999999999999E-5</v>
+      </c>
+      <c r="AD12" s="7">
+        <f>5*10^5</f>
+        <v>500000</v>
+      </c>
+      <c r="AE12" s="7">
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="AF12" s="8">
+      <c r="AF12" s="7">
         <v>39</v>
       </c>
-      <c r="AG12" s="8">
+      <c r="AG12" s="7">
         <v>39</v>
       </c>
-      <c r="AH12" s="8">
+      <c r="AH12" s="7">
         <v>39</v>
       </c>
-      <c r="AI12" s="8">
+      <c r="AI12" s="7">
         <v>39</v>
       </c>
-      <c r="AJ12" s="11">
+      <c r="AJ12" s="10">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="3:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="6"/>
-      <c r="D13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="C13" s="16">
         <f t="shared" si="0"/>
+        <v>2.7580000000000004E-4</v>
+      </c>
+      <c r="D13" s="11">
+        <f>10^6</f>
+        <v>1000000</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="1"/>
         <v>275.8</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>274</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>282</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>263</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>272</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <v>280</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="11">
         <v>286</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="11">
         <v>280</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="11">
         <v>280</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="11">
         <v>268</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="12">
         <v>273</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T13" s="12">
-        <f t="shared" si="1"/>
+      <c r="R13" s="15">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="S13" s="11">
+        <f>10^6</f>
+        <v>1000000</v>
+      </c>
+      <c r="T13" s="11">
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="U13" s="12">
+      <c r="U13" s="11">
         <v>33</v>
       </c>
-      <c r="V13" s="12">
+      <c r="V13" s="11">
         <v>33</v>
       </c>
-      <c r="W13" s="12">
+      <c r="W13" s="11">
         <v>33</v>
       </c>
-      <c r="X13" s="12">
+      <c r="X13" s="11">
         <v>33</v>
       </c>
-      <c r="Y13" s="13">
+      <c r="Y13" s="12">
         <v>33</v>
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE13" s="12">
-        <f t="shared" si="2"/>
+      <c r="AC13" s="14">
+        <f t="shared" si="4"/>
+        <v>7.8400000000000008E-5</v>
+      </c>
+      <c r="AD13" s="11">
+        <f>10^6</f>
+        <v>1000000</v>
+      </c>
+      <c r="AE13" s="11">
+        <f t="shared" si="5"/>
         <v>78.400000000000006</v>
       </c>
-      <c r="AF13" s="12">
+      <c r="AF13" s="11">
         <v>80</v>
       </c>
-      <c r="AG13" s="12">
+      <c r="AG13" s="11">
         <v>78</v>
       </c>
-      <c r="AH13" s="12">
+      <c r="AH13" s="11">
         <v>79</v>
       </c>
-      <c r="AI13" s="12">
+      <c r="AI13" s="11">
         <v>77</v>
       </c>
-      <c r="AJ13" s="13">
+      <c r="AJ13" s="12">
         <v>78</v>
       </c>
     </row>
